--- a/biology/Zoologie/Conus_abbas/Conus_abbas.xlsx
+++ b/biology/Zoologie/Conus_abbas/Conus_abbas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus abbas est un mollusque appartenant à la famille des Conidae. Cette espèce ressemble à Conus textile, mais sa coquille est plus petite.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure entre 38 millimètres et 64 millimètres.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Tryon (1884): côtes de l'Afrique orientale, jusqu'à Ceylan, les Philippines et la Nouvelle-Calédonie.
-D'après le site Biodiversity: Madagascar, Inde méridionale, Sri Lanka, Bali et Java, Indonésie[2]</t>
+D'après le site Biodiversity: Madagascar, Inde méridionale, Sri Lanka, Bali et Java, Indonésie</t>
         </is>
       </c>
     </row>
@@ -573,12 +589,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonyme
 Cylinder abbas (Hwass in Bruguière, 1792)
 Sous-espèce
-Conus abbas var. grisea Dautzenberg, 1937[3]</t>
+Conus abbas var. grisea Dautzenberg, 1937</t>
         </is>
       </c>
     </row>
